--- a/results/comp_study/results_computational.xlsx
+++ b/results/comp_study/results_computational.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzwagner/Documents/GitHub/bnp-hybrid-scheduling/results/comp_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wagnerlo\Documents\GitHub\bnp-hybrid-scheduling\results\comp_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D47444-500F-644A-95E9-4B63DA14C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7881C1E-0812-4750-839B-112B46657D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50900" yWindow="-2120" windowWidth="49980" windowHeight="26400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$1:$AB$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AB$1:$AB$161</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="159">
   <si>
     <t>seed</t>
   </si>
@@ -498,6 +498,9 @@
   <si>
     <t>[6, 1, 1, 1, 1, 1, 1, 1, 5, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 2, 1, 1, 1]</t>
   </si>
+  <si>
+    <t>[6, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
+  </si>
 </sst>
 </file>
 
@@ -864,15 +867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN176"/>
+  <dimension ref="A1:AN181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="X156" sqref="X156"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>86.422588348388672</v>
       </c>
       <c r="AF11">
-        <v>0.46710586547851562</v>
+        <v>0.46710586547851563</v>
       </c>
       <c r="AG11">
         <v>70.737923622131348</v>
@@ -2214,7 +2217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>24</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>26</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31</v>
       </c>
@@ -3190,7 +3193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>34</v>
       </c>
@@ -3434,7 +3437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -3678,7 +3681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>15</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -4166,7 +4169,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -4410,7 +4413,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>21</v>
       </c>
@@ -4776,7 +4779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>24</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>25</v>
       </c>
@@ -5142,7 +5145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>26</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>27</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>28</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>29</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>30</v>
       </c>
@@ -5752,7 +5755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>31</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>18</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22</v>
       </c>
@@ -7094,7 +7097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>24</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25</v>
       </c>
@@ -7338,7 +7341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -7460,7 +7463,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>28</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>29</v>
       </c>
@@ -7826,7 +7829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>30</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>31</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>32</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>33</v>
       </c>
@@ -8314,7 +8317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -8802,7 +8805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>22</v>
       </c>
@@ -9168,7 +9171,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>24</v>
       </c>
@@ -9290,7 +9293,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>31</v>
       </c>
@@ -9522,7 +9525,7 @@
         <v>33.996196269989007</v>
       </c>
       <c r="AK71">
-        <v>96.426467895507812</v>
+        <v>96.426467895507813</v>
       </c>
       <c r="AL71">
         <v>16.9322624206543</v>
@@ -9534,7 +9537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>32</v>
       </c>
@@ -9656,7 +9659,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>34</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>36</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>39</v>
       </c>
@@ -10144,7 +10147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>40</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>50</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>53</v>
       </c>
@@ -10510,7 +10513,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>54</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>57</v>
       </c>
@@ -10754,7 +10757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>11</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>14</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -11120,7 +11123,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>19</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>21</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>25</v>
       </c>
@@ -11608,7 +11611,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>26</v>
       </c>
@@ -11730,7 +11733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>28</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>29</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>31</v>
       </c>
@@ -12096,7 +12099,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>32</v>
       </c>
@@ -12218,7 +12221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>33</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>35</v>
       </c>
@@ -12462,7 +12465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>37</v>
       </c>
@@ -12584,7 +12587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>39</v>
       </c>
@@ -12706,7 +12709,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>40</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>50</v>
       </c>
@@ -12950,7 +12953,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>53</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>54</v>
       </c>
@@ -13194,7 +13197,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -13292,7 +13295,7 @@
         <v>1.303002595901489</v>
       </c>
       <c r="AG102">
-        <v>85.667800903320312</v>
+        <v>85.667800903320313</v>
       </c>
       <c r="AH102">
         <v>0</v>
@@ -13316,7 +13319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -13682,7 +13685,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>19</v>
       </c>
@@ -13804,7 +13807,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>20</v>
       </c>
@@ -13926,7 +13929,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>25</v>
       </c>
@@ -14170,7 +14173,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>26</v>
       </c>
@@ -14292,7 +14295,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>29</v>
       </c>
@@ -14414,7 +14417,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>30</v>
       </c>
@@ -14536,7 +14539,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>32</v>
       </c>
@@ -14658,7 +14661,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>34</v>
       </c>
@@ -14780,7 +14783,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>36</v>
       </c>
@@ -14902,7 +14905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39</v>
       </c>
@@ -15024,7 +15027,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>50</v>
       </c>
@@ -15146,7 +15149,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>56</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>57</v>
       </c>
@@ -15390,7 +15393,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -15512,7 +15515,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>100</v>
       </c>
@@ -15634,7 +15637,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -15756,7 +15759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8</v>
       </c>
@@ -15878,7 +15881,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>9</v>
       </c>
@@ -16000,7 +16003,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -16122,7 +16125,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>16</v>
       </c>
@@ -16244,7 +16247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>17</v>
       </c>
@@ -16366,7 +16369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>19</v>
       </c>
@@ -16488,7 +16491,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>26</v>
       </c>
@@ -16610,7 +16613,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>27</v>
       </c>
@@ -16732,7 +16735,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>28</v>
       </c>
@@ -16854,7 +16857,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>29</v>
       </c>
@@ -16976,7 +16979,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>32</v>
       </c>
@@ -17098,7 +17101,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>39</v>
       </c>
@@ -17220,7 +17223,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>42</v>
       </c>
@@ -17342,7 +17345,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>46</v>
       </c>
@@ -17464,12 +17467,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B137">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>40</v>
@@ -17517,31 +17520,31 @@
         <v>15</v>
       </c>
       <c r="R137">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S137">
-        <v>642</v>
+        <v>220</v>
       </c>
       <c r="T137">
-        <v>642</v>
+        <v>220</v>
       </c>
       <c r="U137">
         <v>0</v>
       </c>
       <c r="V137">
-        <v>557</v>
+        <v>220</v>
       </c>
       <c r="W137">
-        <v>0.13239875389408101</v>
+        <v>0</v>
       </c>
       <c r="X137">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y137">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z137" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="AA137" t="b">
         <v>0</v>
@@ -17550,45 +17553,48 @@
         <v>1</v>
       </c>
       <c r="AC137">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE137">
-        <v>667.37916874885559</v>
+        <v>431.54413557052612</v>
       </c>
       <c r="AF137">
-        <v>5.0076286792755127</v>
+        <v>4.0453805923461914</v>
       </c>
       <c r="AG137">
-        <v>392.90533995628363</v>
+        <v>84.081362724304199</v>
       </c>
       <c r="AH137">
-        <v>0</v>
+        <v>6.7043304443359375E-4</v>
       </c>
       <c r="AI137">
-        <v>340.21540236473078</v>
+        <v>50.091316699981689</v>
       </c>
       <c r="AJ137">
-        <v>23.584071636199951</v>
+        <v>263.25084805488592</v>
+      </c>
+      <c r="AK137">
+        <v>431.53825044631958</v>
       </c>
       <c r="AL137">
-        <v>245.88212847709659</v>
+        <v>80.165873765945435</v>
       </c>
       <c r="AM137">
         <v>1</v>
       </c>
       <c r="AN137">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>40</v>
@@ -17636,78 +17642,81 @@
         <v>15</v>
       </c>
       <c r="R138">
+        <v>7</v>
+      </c>
+      <c r="S138">
+        <v>177</v>
+      </c>
+      <c r="T138">
+        <v>177</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>177</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>15</v>
+      </c>
+      <c r="Y138">
+        <v>11</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA138" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC138">
         <v>14</v>
       </c>
-      <c r="S138">
-        <v>523</v>
-      </c>
-      <c r="T138">
-        <v>523</v>
-      </c>
-      <c r="U138">
-        <v>0</v>
-      </c>
-      <c r="V138">
-        <v>455</v>
-      </c>
-      <c r="W138">
-        <v>0.130019120458891</v>
-      </c>
-      <c r="X138">
-        <v>43</v>
-      </c>
-      <c r="Y138">
-        <v>28</v>
-      </c>
-      <c r="Z138" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA138" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB138" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC138">
-        <v>0</v>
-      </c>
       <c r="AD138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE138">
-        <v>721.60589337348938</v>
+        <v>335.29746627807617</v>
       </c>
       <c r="AF138">
-        <v>8.2576701641082764</v>
+        <v>3.2100036144256592</v>
       </c>
       <c r="AG138">
-        <v>422.75602388381958</v>
+        <v>84.183153629302979</v>
       </c>
       <c r="AH138">
-        <v>0</v>
+        <v>4.8398971557617188E-4</v>
       </c>
       <c r="AI138">
-        <v>359.66728162765497</v>
+        <v>58.649857997894287</v>
       </c>
       <c r="AJ138">
-        <v>21.5569314956665</v>
+        <v>186.34680271148679</v>
+      </c>
+      <c r="AK138">
+        <v>335.29568362236017</v>
       </c>
       <c r="AL138">
-        <v>269.03526782989502</v>
+        <v>61.557022333145142</v>
       </c>
       <c r="AM138">
         <v>1</v>
       </c>
       <c r="AN138">
-        <v>211</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B139">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>40</v>
@@ -17755,31 +17764,31 @@
         <v>15</v>
       </c>
       <c r="R139">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S139">
-        <v>461</v>
+        <v>236</v>
       </c>
       <c r="T139">
-        <v>461</v>
+        <v>236</v>
       </c>
       <c r="U139">
         <v>0</v>
       </c>
       <c r="V139">
-        <v>421</v>
+        <v>236</v>
       </c>
       <c r="W139">
-        <v>8.6767895878524945E-2</v>
+        <v>0</v>
       </c>
       <c r="X139">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Y139">
         <v>15</v>
       </c>
       <c r="Z139" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="AA139" t="b">
         <v>0</v>
@@ -17788,45 +17797,48 @@
         <v>1</v>
       </c>
       <c r="AC139">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD139">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE139">
-        <v>637.59212207794189</v>
+        <v>467.14715480804438</v>
       </c>
       <c r="AF139">
-        <v>5.1938567161560059</v>
+        <v>4.3415818214416504</v>
       </c>
       <c r="AG139">
-        <v>354.26146292686462</v>
+        <v>99.625682353973389</v>
       </c>
       <c r="AH139">
-        <v>0</v>
+        <v>6.4611434936523438E-4</v>
       </c>
       <c r="AI139">
-        <v>335.45466613769531</v>
+        <v>67.08306622505188</v>
       </c>
       <c r="AJ139">
-        <v>43.705831050872803</v>
+        <v>272.78843808174128</v>
+      </c>
+      <c r="AK139">
+        <v>467.1408371925354</v>
       </c>
       <c r="AL139">
-        <v>234.43097138404849</v>
+        <v>90.390806436538696</v>
       </c>
       <c r="AM139">
         <v>1</v>
       </c>
       <c r="AN139">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140">
+        <v>114</v>
+      </c>
+      <c r="B140">
         <v>7</v>
-      </c>
-      <c r="B140">
-        <v>14</v>
       </c>
       <c r="C140" t="s">
         <v>40</v>
@@ -17874,31 +17886,31 @@
         <v>15</v>
       </c>
       <c r="R140">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S140">
-        <v>695</v>
+        <v>241</v>
       </c>
       <c r="T140">
-        <v>695</v>
+        <v>241</v>
       </c>
       <c r="U140">
         <v>0</v>
       </c>
       <c r="V140">
-        <v>602</v>
+        <v>241</v>
       </c>
       <c r="W140">
-        <v>0.13381294964028781</v>
+        <v>0</v>
       </c>
       <c r="X140">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Y140">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="Z140" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="AA140" t="b">
         <v>0</v>
@@ -17907,45 +17919,48 @@
         <v>1</v>
       </c>
       <c r="AC140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE140">
-        <v>670.03753137588501</v>
+        <v>95.629350423812866</v>
       </c>
       <c r="AF140">
-        <v>8.4681704044342041</v>
+        <v>0.66177105903625488</v>
       </c>
       <c r="AG140">
-        <v>460.64536643028259</v>
+        <v>64.878544807434082</v>
       </c>
       <c r="AH140">
         <v>0</v>
       </c>
       <c r="AI140">
-        <v>316.76693511009222</v>
+        <v>61.777961492538452</v>
       </c>
       <c r="AJ140">
-        <v>40.809856653213501</v>
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>95.628334283828735</v>
       </c>
       <c r="AL140">
-        <v>160.11413788795471</v>
+        <v>30.089034557342529</v>
       </c>
       <c r="AM140">
         <v>1</v>
       </c>
       <c r="AN140">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B141">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>40</v>
@@ -17993,31 +18008,31 @@
         <v>15</v>
       </c>
       <c r="R141">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S141">
-        <v>655</v>
+        <v>303</v>
       </c>
       <c r="T141">
-        <v>655</v>
+        <v>303</v>
       </c>
       <c r="U141">
         <v>0</v>
       </c>
       <c r="V141">
-        <v>564</v>
+        <v>303</v>
       </c>
       <c r="W141">
-        <v>0.13893129770992371</v>
+        <v>0</v>
       </c>
       <c r="X141">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Y141">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Z141" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AA141" t="b">
         <v>0</v>
@@ -18026,42 +18041,45 @@
         <v>1</v>
       </c>
       <c r="AC141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE141">
-        <v>687.03084230422974</v>
+        <v>125.83014225959781</v>
       </c>
       <c r="AF141">
-        <v>6.2546601295471191</v>
+        <v>1.2794730663299561</v>
       </c>
       <c r="AG141">
-        <v>410.39156913757319</v>
+        <v>88.260367870330811</v>
       </c>
       <c r="AH141">
         <v>0</v>
       </c>
       <c r="AI141">
-        <v>336.11016082763672</v>
+        <v>85.827317714691162</v>
       </c>
       <c r="AJ141">
-        <v>43.447782516479492</v>
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>125.8291690349579</v>
       </c>
       <c r="AL141">
-        <v>226.93683052062991</v>
+        <v>36.290301322937012</v>
       </c>
       <c r="AM141">
         <v>1</v>
       </c>
       <c r="AN141">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>14</v>
@@ -18115,28 +18133,28 @@
         <v>14</v>
       </c>
       <c r="S142">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="T142">
-        <v>597</v>
+        <v>642</v>
       </c>
       <c r="U142">
         <v>0</v>
       </c>
       <c r="V142">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="W142">
-        <v>0.1591289782244556</v>
+        <v>0.13239875389408101</v>
       </c>
       <c r="X142">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="Y142">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z142" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AA142" t="b">
         <v>0</v>
@@ -18151,36 +18169,36 @@
         <v>1</v>
       </c>
       <c r="AE142">
-        <v>576.91271352767944</v>
+        <v>667.37916874885559</v>
       </c>
       <c r="AF142">
-        <v>4.378375768661499</v>
+        <v>5.0076286792755127</v>
       </c>
       <c r="AG142">
-        <v>385.45249176025391</v>
+        <v>392.90533995628363</v>
       </c>
       <c r="AH142">
         <v>0</v>
       </c>
       <c r="AI142">
-        <v>331.17794394493097</v>
+        <v>340.21540236473078</v>
       </c>
       <c r="AJ142">
-        <v>47.792336225509636</v>
+        <v>23.584071636199951</v>
       </c>
       <c r="AL142">
-        <v>139.28950977325439</v>
+        <v>245.88212847709659</v>
       </c>
       <c r="AM142">
         <v>1</v>
       </c>
       <c r="AN142">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B143">
         <v>14</v>
@@ -18234,31 +18252,31 @@
         <v>14</v>
       </c>
       <c r="S143">
-        <v>766</v>
+        <v>523</v>
       </c>
       <c r="T143">
-        <v>766</v>
+        <v>523</v>
       </c>
       <c r="U143">
         <v>0</v>
       </c>
       <c r="V143">
-        <v>585</v>
+        <v>455</v>
       </c>
       <c r="W143">
-        <v>0.23629242819843341</v>
+        <v>0.130019120458891</v>
       </c>
       <c r="X143">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="Y143">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z143" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AA143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB143" t="b">
         <v>1</v>
@@ -18270,36 +18288,36 @@
         <v>1</v>
       </c>
       <c r="AE143">
-        <v>659.44031739234924</v>
+        <v>721.60589337348938</v>
       </c>
       <c r="AF143">
-        <v>4.686107873916626</v>
+        <v>8.2576701641082764</v>
       </c>
       <c r="AG143">
-        <v>447.11807775497442</v>
+        <v>422.75602388381958</v>
       </c>
       <c r="AH143">
         <v>0</v>
       </c>
       <c r="AI143">
-        <v>381.39899396896362</v>
+        <v>359.66728162765497</v>
       </c>
       <c r="AJ143">
-        <v>56.587142705917358</v>
+        <v>21.5569314956665</v>
       </c>
       <c r="AL143">
-        <v>151.04898905754089</v>
+        <v>269.03526782989502</v>
       </c>
       <c r="AM143">
         <v>1</v>
       </c>
       <c r="AN143">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B144">
         <v>14</v>
@@ -18353,28 +18371,28 @@
         <v>14</v>
       </c>
       <c r="S144">
-        <v>642</v>
+        <v>461</v>
       </c>
       <c r="T144">
-        <v>642</v>
+        <v>461</v>
       </c>
       <c r="U144">
         <v>0</v>
       </c>
       <c r="V144">
-        <v>572</v>
+        <v>421</v>
       </c>
       <c r="W144">
-        <v>0.1090342679127726</v>
+        <v>8.6767895878524945E-2</v>
       </c>
       <c r="X144">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Y144">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="Z144" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AA144" t="b">
         <v>0</v>
@@ -18389,25 +18407,25 @@
         <v>1</v>
       </c>
       <c r="AE144">
-        <v>770.56288623809814</v>
+        <v>637.59212207794189</v>
       </c>
       <c r="AF144">
-        <v>9.4262259006500244</v>
+        <v>5.1938567161560059</v>
       </c>
       <c r="AG144">
-        <v>488.78653240203857</v>
+        <v>354.26146292686462</v>
       </c>
       <c r="AH144">
         <v>0</v>
       </c>
       <c r="AI144">
-        <v>331.82096076011658</v>
+        <v>335.45466613769531</v>
       </c>
       <c r="AJ144">
-        <v>19.619158506393429</v>
+        <v>43.705831050872803</v>
       </c>
       <c r="AL144">
-        <v>252.73096942901611</v>
+        <v>234.43097138404849</v>
       </c>
       <c r="AM144">
         <v>1</v>
@@ -18416,9 +18434,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B145">
         <v>14</v>
@@ -18472,28 +18490,28 @@
         <v>14</v>
       </c>
       <c r="S145">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="T145">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="U145">
         <v>0</v>
       </c>
       <c r="V145">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="W145">
-        <v>0.17018284106891701</v>
+        <v>0.13381294964028781</v>
       </c>
       <c r="X145">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Y145">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Z145" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="AA145" t="b">
         <v>0</v>
@@ -18508,36 +18526,36 @@
         <v>1</v>
       </c>
       <c r="AE145">
-        <v>497.66620111465448</v>
+        <v>670.03753137588501</v>
       </c>
       <c r="AF145">
-        <v>2.601121187210083</v>
+        <v>8.4681704044342041</v>
       </c>
       <c r="AG145">
-        <v>303.80112028121948</v>
+        <v>460.64536643028259</v>
       </c>
       <c r="AH145">
         <v>0</v>
       </c>
       <c r="AI145">
-        <v>320.31213474273682</v>
+        <v>316.76693511009222</v>
       </c>
       <c r="AJ145">
-        <v>42.83205246925354</v>
+        <v>40.809856653213501</v>
       </c>
       <c r="AL145">
-        <v>148.43190717697141</v>
+        <v>160.11413788795471</v>
       </c>
       <c r="AM145">
         <v>1</v>
       </c>
       <c r="AN145">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B146">
         <v>14</v>
@@ -18591,28 +18609,28 @@
         <v>14</v>
       </c>
       <c r="S146">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="T146">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="U146">
         <v>0</v>
       </c>
       <c r="V146">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="W146">
-        <v>0.1339285714285714</v>
+        <v>0.13893129770992371</v>
       </c>
       <c r="X146">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y146">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Z146" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AA146" t="b">
         <v>0</v>
@@ -18627,36 +18645,36 @@
         <v>1</v>
       </c>
       <c r="AE146">
-        <v>488.05768203735352</v>
+        <v>687.03084230422974</v>
       </c>
       <c r="AF146">
-        <v>1.846333503723145</v>
+        <v>6.2546601295471191</v>
       </c>
       <c r="AG146">
-        <v>308.73444867134089</v>
+        <v>410.39156913757319</v>
       </c>
       <c r="AH146">
         <v>0</v>
       </c>
       <c r="AI146">
-        <v>316.8471143245697</v>
+        <v>336.11016082763672</v>
       </c>
       <c r="AJ146">
-        <v>58.424057245254517</v>
+        <v>43.447782516479492</v>
       </c>
       <c r="AL146">
-        <v>119.0528426170349</v>
+        <v>226.93683052062991</v>
       </c>
       <c r="AM146">
         <v>1</v>
       </c>
       <c r="AN146">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B147">
         <v>14</v>
@@ -18710,28 +18728,28 @@
         <v>14</v>
       </c>
       <c r="S147">
-        <v>752</v>
+        <v>597</v>
       </c>
       <c r="T147">
-        <v>752</v>
+        <v>597</v>
       </c>
       <c r="U147">
         <v>0</v>
       </c>
       <c r="V147">
-        <v>618</v>
+        <v>502</v>
       </c>
       <c r="W147">
-        <v>0.17819148936170209</v>
+        <v>0.1591289782244556</v>
       </c>
       <c r="X147">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="Y147">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Z147" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="AA147" t="b">
         <v>0</v>
@@ -18746,36 +18764,36 @@
         <v>1</v>
       </c>
       <c r="AE147">
-        <v>497.04024767875671</v>
+        <v>576.91271352767944</v>
       </c>
       <c r="AF147">
-        <v>2.5798990726470952</v>
+        <v>4.378375768661499</v>
       </c>
       <c r="AG147">
-        <v>306.90338087081909</v>
+        <v>385.45249176025391</v>
       </c>
       <c r="AH147">
         <v>0</v>
       </c>
       <c r="AI147">
-        <v>318.33886432647711</v>
+        <v>331.17794394493097</v>
       </c>
       <c r="AJ147">
-        <v>42.465242624282837</v>
+        <v>47.792336225509636</v>
       </c>
       <c r="AL147">
-        <v>145.09172511100769</v>
+        <v>139.28950977325439</v>
       </c>
       <c r="AM147">
         <v>1</v>
       </c>
       <c r="AN147">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B148">
         <v>14</v>
@@ -18829,31 +18847,31 @@
         <v>14</v>
       </c>
       <c r="S148">
-        <v>559</v>
+        <v>766</v>
       </c>
       <c r="T148">
-        <v>559</v>
+        <v>766</v>
       </c>
       <c r="U148">
         <v>0</v>
       </c>
       <c r="V148">
-        <v>459</v>
+        <v>585</v>
       </c>
       <c r="W148">
-        <v>0.1788908765652952</v>
+        <v>0.23629242819843341</v>
       </c>
       <c r="X148">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="Y148">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z148" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AA148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB148" t="b">
         <v>1</v>
@@ -18865,36 +18883,36 @@
         <v>1</v>
       </c>
       <c r="AE148">
-        <v>489.91726875305181</v>
+        <v>659.44031739234924</v>
       </c>
       <c r="AF148">
-        <v>2.0013353824615479</v>
+        <v>4.686107873916626</v>
       </c>
       <c r="AG148">
-        <v>305.09644746780401</v>
+        <v>447.11807775497442</v>
       </c>
       <c r="AH148">
         <v>0</v>
       </c>
       <c r="AI148">
-        <v>321.54475784301758</v>
+        <v>381.39899396896362</v>
       </c>
       <c r="AJ148">
-        <v>46.110061883926392</v>
+        <v>56.587142705917358</v>
       </c>
       <c r="AL148">
-        <v>136.70942401885989</v>
+        <v>151.04898905754089</v>
       </c>
       <c r="AM148">
         <v>1</v>
       </c>
       <c r="AN148">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B149">
         <v>14</v>
@@ -18948,28 +18966,28 @@
         <v>14</v>
       </c>
       <c r="S149">
-        <v>501</v>
+        <v>642</v>
       </c>
       <c r="T149">
-        <v>501</v>
+        <v>642</v>
       </c>
       <c r="U149">
         <v>0</v>
       </c>
       <c r="V149">
-        <v>435</v>
+        <v>572</v>
       </c>
       <c r="W149">
-        <v>0.1317365269461078</v>
+        <v>0.1090342679127726</v>
       </c>
       <c r="X149">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Y149">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z149" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AA149" t="b">
         <v>0</v>
@@ -18984,36 +19002,36 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>698.59142994880676</v>
+        <v>770.56288623809814</v>
       </c>
       <c r="AF149">
-        <v>7.5844230651855469</v>
+        <v>9.4262259006500244</v>
       </c>
       <c r="AG149">
-        <v>484.83796954154968</v>
+        <v>488.78653240203857</v>
       </c>
       <c r="AH149">
         <v>0</v>
       </c>
       <c r="AI149">
-        <v>324.5599524974823</v>
+        <v>331.82096076011658</v>
       </c>
       <c r="AJ149">
-        <v>44.899530410766602</v>
+        <v>19.619158506393429</v>
       </c>
       <c r="AL149">
-        <v>161.2695069313049</v>
+        <v>252.73096942901611</v>
       </c>
       <c r="AM149">
         <v>1</v>
       </c>
       <c r="AN149">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B150">
         <v>14</v>
@@ -19067,28 +19085,28 @@
         <v>14</v>
       </c>
       <c r="S150">
-        <v>649</v>
+        <v>711</v>
       </c>
       <c r="T150">
-        <v>649</v>
+        <v>711</v>
       </c>
       <c r="U150">
         <v>0</v>
       </c>
       <c r="V150">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="W150">
-        <v>0.15408320493066249</v>
+        <v>0.17018284106891701</v>
       </c>
       <c r="X150">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="Y150">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="Z150" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="AA150" t="b">
         <v>0</v>
@@ -19103,36 +19121,36 @@
         <v>1</v>
       </c>
       <c r="AE150">
-        <v>618.39672565460205</v>
+        <v>497.66620111465448</v>
       </c>
       <c r="AF150">
-        <v>5.3862466812133789</v>
+        <v>2.601121187210083</v>
       </c>
       <c r="AG150">
-        <v>400.4875819683075</v>
+        <v>303.80112028121948</v>
       </c>
       <c r="AH150">
         <v>0</v>
       </c>
       <c r="AI150">
-        <v>335.27281045913702</v>
+        <v>320.31213474273682</v>
       </c>
       <c r="AJ150">
-        <v>53.108094930648797</v>
+        <v>42.83205246925354</v>
       </c>
       <c r="AL150">
-        <v>159.4148020744324</v>
+        <v>148.43190717697141</v>
       </c>
       <c r="AM150">
         <v>1</v>
       </c>
       <c r="AN150">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B151">
         <v>14</v>
@@ -19186,28 +19204,28 @@
         <v>14</v>
       </c>
       <c r="S151">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="T151">
-        <v>611</v>
+        <v>560</v>
       </c>
       <c r="U151">
         <v>0</v>
       </c>
       <c r="V151">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="W151">
-        <v>0.15384615384615391</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="X151">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="Y151">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z151" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="AA151" t="b">
         <v>0</v>
@@ -19222,36 +19240,36 @@
         <v>1</v>
       </c>
       <c r="AE151">
-        <v>509.79709601402283</v>
+        <v>488.05768203735352</v>
       </c>
       <c r="AF151">
-        <v>2.173984050750732</v>
+        <v>1.846333503723145</v>
       </c>
       <c r="AG151">
-        <v>305.01719880104059</v>
+        <v>308.73444867134089</v>
       </c>
       <c r="AH151">
         <v>0</v>
       </c>
       <c r="AI151">
-        <v>317.58171248435968</v>
+        <v>316.8471143245697</v>
       </c>
       <c r="AJ151">
-        <v>41.498652219772339</v>
+        <v>58.424057245254517</v>
       </c>
       <c r="AL151">
-        <v>161.10726094245911</v>
+        <v>119.0528426170349</v>
       </c>
       <c r="AM151">
         <v>1</v>
       </c>
       <c r="AN151">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B152">
         <v>14</v>
@@ -19305,28 +19323,28 @@
         <v>14</v>
       </c>
       <c r="S152">
-        <v>683</v>
+        <v>752</v>
       </c>
       <c r="T152">
-        <v>683</v>
+        <v>752</v>
       </c>
       <c r="U152">
         <v>0</v>
       </c>
       <c r="V152">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="W152">
-        <v>0.11127379209370419</v>
+        <v>0.17819148936170209</v>
       </c>
       <c r="X152">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="Y152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z152" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AA152" t="b">
         <v>0</v>
@@ -19338,39 +19356,39 @@
         <v>0</v>
       </c>
       <c r="AD152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE152">
-        <v>457.39666771888727</v>
+        <v>497.04024767875671</v>
       </c>
       <c r="AF152">
-        <v>0.62427163124084473</v>
+        <v>2.5798990726470952</v>
       </c>
       <c r="AG152">
-        <v>305.23584794998169</v>
+        <v>306.90338087081909</v>
       </c>
       <c r="AH152">
         <v>0</v>
       </c>
       <c r="AI152">
-        <v>329.71259737014771</v>
+        <v>318.33886432647711</v>
       </c>
       <c r="AJ152">
-        <v>0</v>
+        <v>42.465242624282837</v>
       </c>
       <c r="AL152">
-        <v>151.53654813766479</v>
+        <v>145.09172511100769</v>
       </c>
       <c r="AM152">
         <v>1</v>
       </c>
       <c r="AN152">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B153">
         <v>14</v>
@@ -19424,28 +19442,28 @@
         <v>14</v>
       </c>
       <c r="S153">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="T153">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="U153">
         <v>0</v>
       </c>
       <c r="V153">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="W153">
-        <v>0.15781249999999999</v>
+        <v>0.1788908765652952</v>
       </c>
       <c r="X153">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Y153">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z153" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="AA153" t="b">
         <v>0</v>
@@ -19460,25 +19478,25 @@
         <v>1</v>
       </c>
       <c r="AE153">
-        <v>504.73411774635309</v>
+        <v>489.91726875305181</v>
       </c>
       <c r="AF153">
-        <v>2.389793872833252</v>
+        <v>2.0013353824615479</v>
       </c>
       <c r="AG153">
-        <v>299.87566518783569</v>
+        <v>305.09644746780401</v>
       </c>
       <c r="AH153">
         <v>0</v>
       </c>
       <c r="AI153">
-        <v>314.21894526481628</v>
+        <v>321.54475784301758</v>
       </c>
       <c r="AJ153">
-        <v>46.77692699432373</v>
+        <v>46.110061883926392</v>
       </c>
       <c r="AL153">
-        <v>155.6917316913605</v>
+        <v>136.70942401885989</v>
       </c>
       <c r="AM153">
         <v>1</v>
@@ -19487,9 +19505,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B154">
         <v>14</v>
@@ -19543,28 +19561,28 @@
         <v>14</v>
       </c>
       <c r="S154">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="T154">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="U154">
         <v>0</v>
       </c>
       <c r="V154">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="W154">
-        <v>0.11992619926199261</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="X154">
         <v>9</v>
       </c>
       <c r="Y154">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="Z154" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AA154" t="b">
         <v>0</v>
@@ -19579,36 +19597,36 @@
         <v>1</v>
       </c>
       <c r="AE154">
-        <v>615.7429792881012</v>
+        <v>698.59142994880676</v>
       </c>
       <c r="AF154">
-        <v>4.6561121940612793</v>
+        <v>7.5844230651855469</v>
       </c>
       <c r="AG154">
-        <v>399.14393758773798</v>
+        <v>484.83796954154968</v>
       </c>
       <c r="AH154">
         <v>0</v>
       </c>
       <c r="AI154">
-        <v>325.51473426818848</v>
+        <v>324.5599524974823</v>
       </c>
       <c r="AJ154">
-        <v>49.805762529373169</v>
+        <v>44.899530410766602</v>
       </c>
       <c r="AL154">
-        <v>162.13716697692871</v>
+        <v>161.2695069313049</v>
       </c>
       <c r="AM154">
         <v>1</v>
       </c>
       <c r="AN154">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B155">
         <v>14</v>
@@ -19662,28 +19680,28 @@
         <v>14</v>
       </c>
       <c r="S155">
-        <v>473</v>
+        <v>649</v>
       </c>
       <c r="T155">
-        <v>473</v>
+        <v>649</v>
       </c>
       <c r="U155">
         <v>0</v>
       </c>
       <c r="V155">
-        <v>417</v>
+        <v>549</v>
       </c>
       <c r="W155">
-        <v>0.11839323467230441</v>
+        <v>0.15408320493066249</v>
       </c>
       <c r="X155">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y155">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Z155" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="AA155" t="b">
         <v>0</v>
@@ -19695,42 +19713,42 @@
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE155">
-        <v>373.67812776565552</v>
+        <v>618.39672565460205</v>
       </c>
       <c r="AF155">
-        <v>1.233994245529175</v>
+        <v>5.3862466812133789</v>
       </c>
       <c r="AG155">
-        <v>275.53711986541748</v>
+        <v>400.4875819683075</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
       <c r="AI155">
-        <v>285.96061992645258</v>
+        <v>335.27281045913702</v>
       </c>
       <c r="AJ155">
-        <v>0</v>
+        <v>53.108094930648797</v>
       </c>
       <c r="AL155">
-        <v>96.907013654708862</v>
+        <v>159.4148020744324</v>
       </c>
       <c r="AM155">
         <v>1</v>
       </c>
       <c r="AN155">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B156">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C156" t="s">
         <v>40</v>
@@ -19775,34 +19793,34 @@
         <v>4</v>
       </c>
       <c r="Q156">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R156">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S156">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="T156">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="U156">
         <v>0</v>
       </c>
       <c r="V156">
-        <v>616</v>
+        <v>517</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="X156">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="Y156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z156" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AA156" t="b">
         <v>0</v>
@@ -19811,48 +19829,45 @@
         <v>1</v>
       </c>
       <c r="AC156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE156">
-        <v>181.38066411018369</v>
+        <v>509.79709601402283</v>
       </c>
       <c r="AF156">
-        <v>1.5573358535766599</v>
+        <v>2.173984050750732</v>
       </c>
       <c r="AG156">
-        <v>142.5188159942627</v>
+        <v>305.01719880104059</v>
       </c>
       <c r="AH156">
         <v>0</v>
       </c>
       <c r="AI156">
-        <v>141.46292209625241</v>
+        <v>317.58171248435968</v>
       </c>
       <c r="AJ156">
-        <v>0</v>
-      </c>
-      <c r="AK156">
-        <v>181.37064790725711</v>
+        <v>41.498652219772339</v>
       </c>
       <c r="AL156">
-        <v>37.30451226234436</v>
+        <v>161.10726094245911</v>
       </c>
       <c r="AM156">
         <v>1</v>
       </c>
       <c r="AN156">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B157">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
         <v>40</v>
@@ -19900,31 +19915,31 @@
         <v>15</v>
       </c>
       <c r="R157">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S157">
-        <v>1148</v>
+        <v>683</v>
       </c>
       <c r="T157">
-        <v>1148</v>
+        <v>683</v>
       </c>
       <c r="U157">
         <v>0</v>
       </c>
       <c r="V157">
-        <v>1148</v>
+        <v>607</v>
       </c>
       <c r="W157">
-        <v>-1.980606928948014E-16</v>
+        <v>0.11127379209370419</v>
       </c>
       <c r="X157">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="Y157">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z157" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AA157" t="b">
         <v>0</v>
@@ -19933,48 +19948,45 @@
         <v>1</v>
       </c>
       <c r="AC157">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AD157">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AE157">
-        <v>1114.5018966197999</v>
+        <v>457.39666771888727</v>
       </c>
       <c r="AF157">
-        <v>15.21179294586182</v>
+        <v>0.62427163124084473</v>
       </c>
       <c r="AG157">
-        <v>326.09483289718628</v>
+        <v>305.23584794998169</v>
       </c>
       <c r="AH157">
-        <v>3.2365322113037109E-3</v>
+        <v>0</v>
       </c>
       <c r="AI157">
-        <v>103.30269336700439</v>
+        <v>329.71259737014771</v>
       </c>
       <c r="AJ157">
-        <v>426.55875205993999</v>
-      </c>
-      <c r="AK157">
-        <v>2614.4966161251068</v>
+        <v>0</v>
       </c>
       <c r="AL157">
-        <v>446.63328218460077</v>
+        <v>151.53654813766479</v>
       </c>
       <c r="AM157">
         <v>1</v>
       </c>
       <c r="AN157">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B158">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>40</v>
@@ -20022,31 +20034,31 @@
         <v>15</v>
       </c>
       <c r="R158">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S158">
-        <v>1006</v>
+        <v>640</v>
       </c>
       <c r="T158">
-        <v>1006</v>
+        <v>640</v>
       </c>
       <c r="U158">
         <v>0</v>
       </c>
       <c r="V158">
-        <v>1006</v>
+        <v>539</v>
       </c>
       <c r="W158">
-        <v>-1.1300878501154669E-16</v>
+        <v>0.15781249999999999</v>
       </c>
       <c r="X158">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="Y158">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="Z158" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AA158" t="b">
         <v>0</v>
@@ -20055,48 +20067,45 @@
         <v>1</v>
       </c>
       <c r="AC158">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AD158">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AE158">
-        <v>573.72157955169996</v>
+        <v>504.73411774635309</v>
       </c>
       <c r="AF158">
-        <v>20.443433523178101</v>
+        <v>2.389793872833252</v>
       </c>
       <c r="AG158">
-        <v>433.42521524429321</v>
+        <v>299.87566518783569</v>
       </c>
       <c r="AH158">
-        <v>5.8927536010742188E-3</v>
+        <v>0</v>
       </c>
       <c r="AI158">
-        <v>121.11198663711551</v>
+        <v>314.21894526481628</v>
       </c>
       <c r="AJ158">
-        <v>2528.4606730937958</v>
-      </c>
-      <c r="AK158">
-        <v>3573.71737408638</v>
+        <v>46.77692699432373</v>
       </c>
       <c r="AL158">
-        <v>591.38636493682861</v>
+        <v>155.6917316913605</v>
       </c>
       <c r="AM158">
         <v>1</v>
       </c>
       <c r="AN158">
-        <v>250</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B159">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
         <v>40</v>
@@ -20144,81 +20153,78 @@
         <v>15</v>
       </c>
       <c r="R159">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S159">
-        <v>1030</v>
+        <v>542</v>
       </c>
       <c r="T159">
-        <v>1030</v>
+        <v>542</v>
       </c>
       <c r="U159">
         <v>0</v>
       </c>
       <c r="V159">
-        <v>1030</v>
+        <v>477</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>0.11992619926199261</v>
       </c>
       <c r="X159">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="Y159">
+        <v>26</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB159" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>1</v>
+      </c>
+      <c r="AE159">
+        <v>615.7429792881012</v>
+      </c>
+      <c r="AF159">
+        <v>4.6561121940612793</v>
+      </c>
+      <c r="AG159">
+        <v>399.14393758773798</v>
+      </c>
+      <c r="AH159">
+        <v>0</v>
+      </c>
+      <c r="AI159">
+        <v>325.51473426818848</v>
+      </c>
+      <c r="AJ159">
+        <v>49.805762529373169</v>
+      </c>
+      <c r="AL159">
+        <v>162.13716697692871</v>
+      </c>
+      <c r="AM159">
+        <v>1</v>
+      </c>
+      <c r="AN159">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>46</v>
       </c>
-      <c r="Z159" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA159" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB159" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC159">
-        <v>70</v>
-      </c>
-      <c r="AD159">
-        <v>34</v>
-      </c>
-      <c r="AE159">
-        <v>1190.1987802982301</v>
-      </c>
-      <c r="AF159">
-        <v>17.565995216369629</v>
-      </c>
-      <c r="AG159">
-        <v>452.16750049591059</v>
-      </c>
-      <c r="AH159">
-        <v>5.6080818176269531E-3</v>
-      </c>
-      <c r="AI159">
-        <v>127.8640656471252</v>
-      </c>
-      <c r="AJ159">
-        <v>2258.2409687042241</v>
-      </c>
-      <c r="AK159">
-        <v>3190.1935479640961</v>
-      </c>
-      <c r="AL159">
-        <v>462.2187077999115</v>
-      </c>
-      <c r="AM159">
-        <v>1</v>
-      </c>
-      <c r="AN159">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>9</v>
-      </c>
       <c r="B160">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
         <v>40</v>
@@ -20266,31 +20272,31 @@
         <v>15</v>
       </c>
       <c r="R160">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S160">
-        <v>1165</v>
+        <v>473</v>
       </c>
       <c r="T160">
-        <v>1165</v>
+        <v>473</v>
       </c>
       <c r="U160">
         <v>0</v>
       </c>
       <c r="V160">
-        <v>1165</v>
+        <v>417</v>
       </c>
       <c r="W160">
-        <v>1.9517053686114339E-16</v>
+        <v>0.11839323467230441</v>
       </c>
       <c r="X160">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="Y160">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="Z160" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="AA160" t="b">
         <v>0</v>
@@ -20299,45 +20305,42 @@
         <v>1</v>
       </c>
       <c r="AC160">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD160">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE160">
-        <v>751.88521814345995</v>
+        <v>373.67812776565552</v>
       </c>
       <c r="AF160">
-        <v>14.99650549888611</v>
+        <v>1.233994245529175</v>
       </c>
       <c r="AG160">
-        <v>342.90440726280212</v>
+        <v>275.53711986541748</v>
       </c>
       <c r="AH160">
-        <v>4.2469501495361328E-3</v>
+        <v>0</v>
       </c>
       <c r="AI160">
-        <v>125.1061735153198</v>
+        <v>285.96061992645258</v>
       </c>
       <c r="AJ160">
-        <v>1895.9208722114561</v>
-      </c>
-      <c r="AK160">
-        <v>2751.8832151889801</v>
+        <v>0</v>
       </c>
       <c r="AL160">
-        <v>498.05918622016912</v>
+        <v>96.907013654708862</v>
       </c>
       <c r="AM160">
         <v>1</v>
       </c>
       <c r="AN160">
-        <v>257</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B161">
         <v>28</v>
@@ -20385,34 +20388,34 @@
         <v>4</v>
       </c>
       <c r="Q161">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R161">
         <v>28</v>
       </c>
       <c r="S161">
-        <v>1090</v>
+        <v>616</v>
       </c>
       <c r="T161">
-        <v>1090</v>
+        <v>616</v>
       </c>
       <c r="U161">
         <v>0</v>
       </c>
       <c r="V161">
-        <v>1090</v>
+        <v>616</v>
       </c>
       <c r="W161">
         <v>0</v>
       </c>
       <c r="X161">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="Y161">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Z161" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="AA161" t="b">
         <v>0</v>
@@ -20421,45 +20424,45 @@
         <v>1</v>
       </c>
       <c r="AC161">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="AD161">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE161">
-        <v>694.12786483765001</v>
+        <v>181.38066411018369</v>
       </c>
       <c r="AF161">
-        <v>13.780287027359011</v>
+        <v>1.5573358535766599</v>
       </c>
       <c r="AG161">
-        <v>332.54567861557013</v>
+        <v>142.5188159942627</v>
       </c>
       <c r="AH161">
-        <v>5.1877498626708976E-3</v>
+        <v>0</v>
       </c>
       <c r="AI161">
-        <v>122.16225337982181</v>
+        <v>141.46292209625241</v>
       </c>
       <c r="AJ161">
-        <v>1847.8278617858889</v>
+        <v>0</v>
       </c>
       <c r="AK161">
-        <v>2694.1250576972961</v>
+        <v>181.37064790725711</v>
       </c>
       <c r="AL161">
-        <v>499.96884965896612</v>
+        <v>37.30451226234436</v>
       </c>
       <c r="AM161">
         <v>1</v>
       </c>
       <c r="AN161">
-        <v>249</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B162">
         <v>28</v>
@@ -20513,28 +20516,28 @@
         <v>28</v>
       </c>
       <c r="S162">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="T162">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="U162">
         <v>0</v>
       </c>
       <c r="V162">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>-1.980606928948014E-16</v>
       </c>
       <c r="X162">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="Y162">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="Z162" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="AA162" t="b">
         <v>0</v>
@@ -20543,45 +20546,45 @@
         <v>1</v>
       </c>
       <c r="AC162">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="AD162">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AE162">
-        <v>405.85777616500849</v>
+        <v>1114.5018966197999</v>
       </c>
       <c r="AF162">
-        <v>1.9779777526855471</v>
+        <v>15.21179294586182</v>
       </c>
       <c r="AG162">
-        <v>137.86257433891299</v>
+        <v>326.09483289718628</v>
       </c>
       <c r="AH162">
-        <v>0</v>
+        <v>3.2365322113037109E-3</v>
       </c>
       <c r="AI162">
-        <v>114.44661021232599</v>
+        <v>103.30269336700439</v>
       </c>
       <c r="AJ162">
-        <v>165.60246419906619</v>
+        <v>426.55875205993999</v>
       </c>
       <c r="AK162">
-        <v>405.85603952407843</v>
+        <v>2614.4966161251068</v>
       </c>
       <c r="AL162">
-        <v>100.4147598743439</v>
+        <v>446.63328218460077</v>
       </c>
       <c r="AM162">
         <v>1</v>
       </c>
       <c r="AN162">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B163">
         <v>28</v>
@@ -20635,28 +20638,28 @@
         <v>28</v>
       </c>
       <c r="S163">
-        <v>1099</v>
+        <v>1006</v>
       </c>
       <c r="T163">
-        <v>1099</v>
+        <v>1006</v>
       </c>
       <c r="U163">
         <v>0</v>
       </c>
       <c r="V163">
-        <v>1099</v>
+        <v>1006</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>-1.1300878501154669E-16</v>
       </c>
       <c r="X163">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="Y163">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="Z163" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AA163" t="b">
         <v>0</v>
@@ -20665,45 +20668,45 @@
         <v>1</v>
       </c>
       <c r="AC163">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AD163">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="AE163">
-        <v>1346.1599946022</v>
+        <v>573.72157955169996</v>
       </c>
       <c r="AF163">
-        <v>9.65842604637146</v>
+        <v>20.443433523178101</v>
       </c>
       <c r="AG163">
-        <v>256.57008075714111</v>
+        <v>433.42521524429321</v>
       </c>
       <c r="AH163">
-        <v>4.3697357177734384E-3</v>
+        <v>5.8927536010742188E-3</v>
       </c>
       <c r="AI163">
-        <v>113.1682076454163</v>
+        <v>121.11198663711551</v>
       </c>
       <c r="AJ163">
-        <v>1231.890855312347</v>
+        <v>2528.4606730937958</v>
       </c>
       <c r="AK163">
-        <v>1846.156723976135</v>
+        <v>3573.71737408638</v>
       </c>
       <c r="AL163">
-        <v>348.03626275062561</v>
+        <v>591.38636493682861</v>
       </c>
       <c r="AM163">
         <v>1</v>
       </c>
       <c r="AN163">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B164">
         <v>28</v>
@@ -20757,28 +20760,28 @@
         <v>28</v>
       </c>
       <c r="S164">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="T164">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="U164">
         <v>0</v>
       </c>
       <c r="V164">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="W164">
         <v>0</v>
       </c>
       <c r="X164">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Y164">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Z164" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AA164" t="b">
         <v>0</v>
@@ -20787,45 +20790,45 @@
         <v>1</v>
       </c>
       <c r="AC164">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AD164">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AE164">
-        <v>809.84259700774999</v>
+        <v>1190.1987802982301</v>
       </c>
       <c r="AF164">
-        <v>18.761961698532101</v>
+        <v>17.565995216369629</v>
       </c>
       <c r="AG164">
-        <v>403.03853464126593</v>
+        <v>452.16750049591059</v>
       </c>
       <c r="AH164">
-        <v>1.0175466537475589E-2</v>
+        <v>5.6080818176269531E-3</v>
       </c>
       <c r="AI164">
-        <v>130.78400850296021</v>
+        <v>127.8640656471252</v>
       </c>
       <c r="AJ164">
-        <v>2359.7571799755101</v>
+        <v>2258.2409687042241</v>
       </c>
       <c r="AK164">
-        <v>3409.8407564163208</v>
+        <v>3190.1935479640961</v>
       </c>
       <c r="AL164">
-        <v>628.27474522590637</v>
+        <v>462.2187077999115</v>
       </c>
       <c r="AM164">
         <v>1</v>
       </c>
       <c r="AN164">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B165">
         <v>28</v>
@@ -20879,28 +20882,28 @@
         <v>28</v>
       </c>
       <c r="S165">
-        <v>1049</v>
+        <v>1165</v>
       </c>
       <c r="T165">
-        <v>1049</v>
+        <v>1165</v>
       </c>
       <c r="U165">
         <v>0</v>
       </c>
       <c r="V165">
-        <v>1049</v>
+        <v>1165</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>1.9517053686114339E-16</v>
       </c>
       <c r="X165">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="Y165">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Z165" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AA165" t="b">
         <v>0</v>
@@ -20909,45 +20912,45 @@
         <v>1</v>
       </c>
       <c r="AC165">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AD165">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AE165">
-        <v>1198.1471796035769</v>
+        <v>751.88521814345995</v>
       </c>
       <c r="AF165">
-        <v>6.8104479312896729</v>
+        <v>14.99650549888611</v>
       </c>
       <c r="AG165">
-        <v>216.18714046478269</v>
+        <v>342.90440726280212</v>
       </c>
       <c r="AH165">
-        <v>1.5950202941894529E-3</v>
+        <v>4.2469501495361328E-3</v>
       </c>
       <c r="AI165">
-        <v>145.79566431045529</v>
+        <v>125.1061735153198</v>
       </c>
       <c r="AJ165">
-        <v>720.15010976791382</v>
+        <v>1895.9208722114561</v>
       </c>
       <c r="AK165">
-        <v>1198.1449248790741</v>
+        <v>2751.8832151889801</v>
       </c>
       <c r="AL165">
-        <v>254.99788641929629</v>
+        <v>498.05918622016912</v>
       </c>
       <c r="AM165">
         <v>1</v>
       </c>
       <c r="AN165">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B166">
         <v>28</v>
@@ -21001,28 +21004,28 @@
         <v>28</v>
       </c>
       <c r="S166">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="T166">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="U166">
         <v>0</v>
       </c>
       <c r="V166">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="W166">
         <v>0</v>
       </c>
       <c r="X166">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Y166">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Z166" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AA166" t="b">
         <v>0</v>
@@ -21031,45 +21034,45 @@
         <v>1</v>
       </c>
       <c r="AC166">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AD166">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE166">
-        <v>653.59308481215999</v>
+        <v>694.12786483765001</v>
       </c>
       <c r="AF166">
-        <v>8.7305481433868408</v>
+        <v>13.780287027359011</v>
       </c>
       <c r="AG166">
-        <v>234.23389172554019</v>
+        <v>332.54567861557013</v>
       </c>
       <c r="AH166">
-        <v>4.2030811309814453E-3</v>
+        <v>5.1877498626708976E-3</v>
       </c>
       <c r="AI166">
-        <v>115.32904720306399</v>
+        <v>122.16225337982181</v>
       </c>
       <c r="AJ166">
-        <v>1084.491548538208</v>
+        <v>1847.8278617858889</v>
       </c>
       <c r="AK166">
-        <v>1653.5888869762421</v>
+        <v>2694.1250576972961</v>
       </c>
       <c r="AL166">
-        <v>326.13289332389832</v>
+        <v>499.96884965896612</v>
       </c>
       <c r="AM166">
         <v>1</v>
       </c>
       <c r="AN166">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B167">
         <v>28</v>
@@ -21123,28 +21126,28 @@
         <v>28</v>
       </c>
       <c r="S167">
-        <v>1028</v>
+        <v>1138</v>
       </c>
       <c r="T167">
-        <v>1028</v>
+        <v>1138</v>
       </c>
       <c r="U167">
         <v>0</v>
       </c>
       <c r="V167">
-        <v>1028</v>
+        <v>1138</v>
       </c>
       <c r="W167">
         <v>0</v>
       </c>
       <c r="X167">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="Y167">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="Z167" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="AA167" t="b">
         <v>0</v>
@@ -21153,45 +21156,45 @@
         <v>1</v>
       </c>
       <c r="AC167">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AD167">
+        <v>2</v>
+      </c>
+      <c r="AE167">
+        <v>405.85777616500849</v>
+      </c>
+      <c r="AF167">
+        <v>1.9779777526855471</v>
+      </c>
+      <c r="AG167">
+        <v>137.86257433891299</v>
+      </c>
+      <c r="AH167">
+        <v>0</v>
+      </c>
+      <c r="AI167">
+        <v>114.44661021232599</v>
+      </c>
+      <c r="AJ167">
+        <v>165.60246419906619</v>
+      </c>
+      <c r="AK167">
+        <v>405.85603952407843</v>
+      </c>
+      <c r="AL167">
+        <v>100.4147598743439</v>
+      </c>
+      <c r="AM167">
+        <v>1</v>
+      </c>
+      <c r="AN167">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>19</v>
-      </c>
-      <c r="AE167">
-        <v>863.78102421761002</v>
-      </c>
-      <c r="AF167">
-        <v>12.388820648193359</v>
-      </c>
-      <c r="AG167">
-        <v>280.78478813171392</v>
-      </c>
-      <c r="AH167">
-        <v>5.6107044219970703E-3</v>
-      </c>
-      <c r="AI167">
-        <v>137.79616379737851</v>
-      </c>
-      <c r="AJ167">
-        <v>1432.4830253124239</v>
-      </c>
-      <c r="AK167">
-        <v>2163.7789523601532</v>
-      </c>
-      <c r="AL167">
-        <v>438.11877942085272</v>
-      </c>
-      <c r="AM167">
-        <v>1</v>
-      </c>
-      <c r="AN167">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>28</v>
       </c>
       <c r="B168">
         <v>28</v>
@@ -21245,75 +21248,75 @@
         <v>28</v>
       </c>
       <c r="S168">
-        <v>929</v>
+        <v>1099</v>
       </c>
       <c r="T168">
-        <v>929</v>
+        <v>1099</v>
       </c>
       <c r="U168">
         <v>0</v>
       </c>
       <c r="V168">
-        <v>929</v>
+        <v>1099</v>
       </c>
       <c r="W168">
         <v>0</v>
       </c>
       <c r="X168">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="Y168">
+        <v>21</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA168" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC168">
         <v>34</v>
       </c>
-      <c r="Z168" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA168" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB168" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC168">
-        <v>60</v>
-      </c>
       <c r="AD168">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AE168">
-        <v>716.61761093140001</v>
+        <v>1346.1599946022</v>
       </c>
       <c r="AF168">
-        <v>17.137882232666019</v>
+        <v>9.65842604637146</v>
       </c>
       <c r="AG168">
-        <v>337.89345836639399</v>
+        <v>256.57008075714111</v>
       </c>
       <c r="AH168">
-        <v>9.4888210296630859E-3</v>
+        <v>4.3697357177734384E-3</v>
       </c>
       <c r="AI168">
-        <v>108.69696354866031</v>
+        <v>113.1682076454163</v>
       </c>
       <c r="AJ168">
-        <v>2151.9382860660548</v>
+        <v>1231.890855312347</v>
       </c>
       <c r="AK168">
-        <v>3116.6157507896419</v>
+        <v>1846.156723976135</v>
       </c>
       <c r="AL168">
-        <v>609.63849544525146</v>
+        <v>348.03626275062561</v>
       </c>
       <c r="AM168">
         <v>1</v>
       </c>
       <c r="AN168">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B169">
         <v>28</v>
@@ -21367,28 +21370,28 @@
         <v>28</v>
       </c>
       <c r="S169">
-        <v>1094</v>
+        <v>1043</v>
       </c>
       <c r="T169">
-        <v>1094</v>
+        <v>1043</v>
       </c>
       <c r="U169">
         <v>0</v>
       </c>
       <c r="V169">
-        <v>1094</v>
+        <v>1043</v>
       </c>
       <c r="W169">
         <v>0</v>
       </c>
       <c r="X169">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y169">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z169" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AA169" t="b">
         <v>0</v>
@@ -21397,45 +21400,45 @@
         <v>1</v>
       </c>
       <c r="AC169">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AD169">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE169">
-        <v>519.03378033638</v>
+        <v>809.84259700774999</v>
       </c>
       <c r="AF169">
-        <v>16.934431791305538</v>
+        <v>18.761961698532101</v>
       </c>
       <c r="AG169">
-        <v>386.4858603477478</v>
+        <v>403.03853464126593</v>
       </c>
       <c r="AH169">
-        <v>1.178073883056641E-2</v>
+        <v>1.0175466537475589E-2</v>
       </c>
       <c r="AI169">
-        <v>118.88050174713131</v>
+        <v>130.78400850296021</v>
       </c>
       <c r="AJ169">
-        <v>2442.4958064556122</v>
+        <v>2359.7571799755101</v>
       </c>
       <c r="AK169">
-        <v>3519.0319714546199</v>
+        <v>3409.8407564163208</v>
       </c>
       <c r="AL169">
-        <v>673.10590100288391</v>
+        <v>628.27474522590637</v>
       </c>
       <c r="AM169">
         <v>1</v>
       </c>
       <c r="AN169">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B170">
         <v>28</v>
@@ -21489,28 +21492,28 @@
         <v>28</v>
       </c>
       <c r="S170">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="T170">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="U170">
         <v>0</v>
       </c>
       <c r="V170">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="W170">
         <v>0</v>
       </c>
       <c r="X170">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y170">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z170" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="AA170" t="b">
         <v>0</v>
@@ -21519,45 +21522,45 @@
         <v>1</v>
       </c>
       <c r="AC170">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AD170">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE170">
-        <v>640.46791219710997</v>
+        <v>1198.1471796035769</v>
       </c>
       <c r="AF170">
-        <v>8.5376448631286621</v>
+        <v>6.8104479312896729</v>
       </c>
       <c r="AG170">
-        <v>238.28921103477481</v>
+        <v>216.18714046478269</v>
       </c>
       <c r="AH170">
-        <v>4.2901039123535156E-3</v>
+        <v>1.5950202941894529E-3</v>
       </c>
       <c r="AI170">
-        <v>123.2747783660889</v>
+        <v>145.79566431045529</v>
       </c>
       <c r="AJ170">
-        <v>1058.737617254257</v>
+        <v>720.15010976791382</v>
       </c>
       <c r="AK170">
-        <v>1640.463691473007</v>
+        <v>1198.1449248790741</v>
       </c>
       <c r="AL170">
-        <v>334.89914894103998</v>
+        <v>254.99788641929629</v>
       </c>
       <c r="AM170">
         <v>1</v>
       </c>
       <c r="AN170">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B171">
         <v>28</v>
@@ -21611,28 +21614,28 @@
         <v>28</v>
       </c>
       <c r="S171">
-        <v>1203</v>
+        <v>1100</v>
       </c>
       <c r="T171">
-        <v>1203</v>
+        <v>1100</v>
       </c>
       <c r="U171">
         <v>0</v>
       </c>
       <c r="V171">
-        <v>1203</v>
+        <v>1100</v>
       </c>
       <c r="W171">
         <v>0</v>
       </c>
       <c r="X171">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y171">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z171" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AA171" t="b">
         <v>0</v>
@@ -21641,45 +21644,45 @@
         <v>1</v>
       </c>
       <c r="AC171">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD171">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE171">
-        <v>836.30225825310004</v>
+        <v>653.59308481215999</v>
       </c>
       <c r="AF171">
-        <v>9.8281362056732178</v>
+        <v>8.7305481433868408</v>
       </c>
       <c r="AG171">
-        <v>279.0698344707489</v>
+        <v>234.23389172554019</v>
       </c>
       <c r="AH171">
-        <v>7.5461864471435547E-3</v>
+        <v>4.2030811309814453E-3</v>
       </c>
       <c r="AI171">
-        <v>172.4452645778656</v>
+        <v>115.32904720306399</v>
       </c>
       <c r="AJ171">
-        <v>1142.3935084342961</v>
+        <v>1084.491548538208</v>
       </c>
       <c r="AK171">
-        <v>1836.2995803356171</v>
+        <v>1653.5888869762421</v>
       </c>
       <c r="AL171">
-        <v>405.00323295593262</v>
+        <v>326.13289332389832</v>
       </c>
       <c r="AM171">
         <v>1</v>
       </c>
       <c r="AN171">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B172">
         <v>28</v>
@@ -21733,28 +21736,28 @@
         <v>28</v>
       </c>
       <c r="S172">
-        <v>1158</v>
+        <v>1028</v>
       </c>
       <c r="T172">
-        <v>1158</v>
+        <v>1028</v>
       </c>
       <c r="U172">
         <v>0</v>
       </c>
       <c r="V172">
-        <v>1158</v>
+        <v>1028</v>
       </c>
       <c r="W172">
         <v>0</v>
       </c>
       <c r="X172">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Y172">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="Z172" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AA172" t="b">
         <v>0</v>
@@ -21763,45 +21766,45 @@
         <v>1</v>
       </c>
       <c r="AC172">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AD172">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE172">
-        <v>544.10380053519998</v>
+        <v>863.78102421761002</v>
       </c>
       <c r="AF172">
-        <v>7.4917051792144784</v>
+        <v>12.388820648193359</v>
       </c>
       <c r="AG172">
-        <v>221.38192081451419</v>
+        <v>280.78478813171392</v>
       </c>
       <c r="AH172">
-        <v>5.4190158843994141E-3</v>
+        <v>5.6107044219970703E-3</v>
       </c>
       <c r="AI172">
-        <v>135.6943020820618</v>
+        <v>137.79616379737851</v>
       </c>
       <c r="AJ172">
-        <v>962.62697339057922</v>
+        <v>1432.4830253124239</v>
       </c>
       <c r="AK172">
-        <v>1544.1010680198669</v>
+        <v>2163.7789523601532</v>
       </c>
       <c r="AL172">
-        <v>352.59778213500982</v>
+        <v>438.11877942085272</v>
       </c>
       <c r="AM172">
         <v>1</v>
       </c>
       <c r="AN172">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B173">
         <v>28</v>
@@ -21855,28 +21858,28 @@
         <v>28</v>
       </c>
       <c r="S173">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="T173">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="U173">
         <v>0</v>
       </c>
       <c r="V173">
-        <v>894</v>
+        <v>929</v>
       </c>
       <c r="W173">
         <v>0</v>
       </c>
       <c r="X173">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="Y173">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="Z173" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="AA173" t="b">
         <v>0</v>
@@ -21885,45 +21888,45 @@
         <v>1</v>
       </c>
       <c r="AC173">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AD173">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AE173">
-        <v>817.92302489280701</v>
+        <v>716.61761093140001</v>
       </c>
       <c r="AF173">
-        <v>4.0994601249694824</v>
+        <v>17.137882232666019</v>
       </c>
       <c r="AG173">
-        <v>172.59360575675959</v>
+        <v>337.89345836639399</v>
       </c>
       <c r="AH173">
-        <v>2.5582313537597661E-3</v>
+        <v>9.4888210296630859E-3</v>
       </c>
       <c r="AI173">
-        <v>128.2538306713104</v>
+        <v>108.69696354866031</v>
       </c>
       <c r="AJ173">
-        <v>448.13079404830933</v>
+        <v>2151.9382860660548</v>
       </c>
       <c r="AK173">
-        <v>817.91925621032715</v>
+        <v>3116.6157507896419</v>
       </c>
       <c r="AL173">
-        <v>193.09660673141479</v>
+        <v>609.63849544525146</v>
       </c>
       <c r="AM173">
         <v>1</v>
       </c>
       <c r="AN173">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B174">
         <v>28</v>
@@ -21977,28 +21980,28 @@
         <v>28</v>
       </c>
       <c r="S174">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="T174">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="U174">
         <v>0</v>
       </c>
       <c r="V174">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="W174">
         <v>0</v>
       </c>
       <c r="X174">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="Y174">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Z174" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="AA174" t="b">
         <v>0</v>
@@ -22007,45 +22010,45 @@
         <v>1</v>
       </c>
       <c r="AC174">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="AD174">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AE174">
-        <v>720.67113852500995</v>
+        <v>519.03378033638</v>
       </c>
       <c r="AF174">
-        <v>10.025145053863531</v>
+        <v>16.934431791305538</v>
       </c>
       <c r="AG174">
-        <v>283.61882185935968</v>
+        <v>386.4858603477478</v>
       </c>
       <c r="AH174">
-        <v>5.7682991027832031E-3</v>
+        <v>1.178073883056641E-2</v>
       </c>
       <c r="AI174">
-        <v>166.00710582733149</v>
+        <v>118.88050174713131</v>
       </c>
       <c r="AJ174">
-        <v>1224.633525371552</v>
+        <v>2442.4958064556122</v>
       </c>
       <c r="AK174">
-        <v>1920.668111085892</v>
+        <v>3519.0319714546199</v>
       </c>
       <c r="AL174">
-        <v>402.38787794113159</v>
+        <v>673.10590100288391</v>
       </c>
       <c r="AM174">
         <v>1</v>
       </c>
       <c r="AN174">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B175">
         <v>28</v>
@@ -22099,28 +22102,28 @@
         <v>28</v>
       </c>
       <c r="S175">
-        <v>1150</v>
+        <v>1052</v>
       </c>
       <c r="T175">
-        <v>1150</v>
+        <v>1052</v>
       </c>
       <c r="U175">
         <v>0</v>
       </c>
       <c r="V175">
-        <v>1150</v>
+        <v>1052</v>
       </c>
       <c r="W175">
         <v>0</v>
       </c>
       <c r="X175">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Y175">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Z175" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AA175" t="b">
         <v>0</v>
@@ -22129,45 +22132,45 @@
         <v>1</v>
       </c>
       <c r="AC175">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AD175">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AE175">
-        <v>587.51598048209996</v>
+        <v>640.46791219710997</v>
       </c>
       <c r="AF175">
-        <v>12.50327634811401</v>
+        <v>8.5376448631286621</v>
       </c>
       <c r="AG175">
-        <v>303.69833087921143</v>
+        <v>238.28921103477481</v>
       </c>
       <c r="AH175">
-        <v>8.3026885986328125E-3</v>
+        <v>4.2901039123535156E-3</v>
       </c>
       <c r="AI175">
-        <v>139.4473948478699</v>
+        <v>123.2747783660889</v>
       </c>
       <c r="AJ175">
-        <v>1721.471464157104</v>
+        <v>1058.737617254257</v>
       </c>
       <c r="AK175">
-        <v>2587.514200687408</v>
+        <v>1640.463691473007</v>
       </c>
       <c r="AL175">
-        <v>549.83460640907288</v>
+        <v>334.89914894103998</v>
       </c>
       <c r="AM175">
         <v>1</v>
       </c>
       <c r="AN175">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B176">
         <v>28</v>
@@ -22221,69 +22224,679 @@
         <v>28</v>
       </c>
       <c r="S176">
+        <v>1203</v>
+      </c>
+      <c r="T176">
+        <v>1203</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>1203</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>25</v>
+      </c>
+      <c r="Y176">
+        <v>22</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC176">
+        <v>24</v>
+      </c>
+      <c r="AD176">
+        <v>11</v>
+      </c>
+      <c r="AE176">
+        <v>836.30225825310004</v>
+      </c>
+      <c r="AF176">
+        <v>9.8281362056732178</v>
+      </c>
+      <c r="AG176">
+        <v>279.0698344707489</v>
+      </c>
+      <c r="AH176">
+        <v>7.5461864471435547E-3</v>
+      </c>
+      <c r="AI176">
+        <v>172.4452645778656</v>
+      </c>
+      <c r="AJ176">
+        <v>1142.3935084342961</v>
+      </c>
+      <c r="AK176">
+        <v>1836.2995803356171</v>
+      </c>
+      <c r="AL176">
+        <v>405.00323295593262</v>
+      </c>
+      <c r="AM176">
+        <v>1</v>
+      </c>
+      <c r="AN176">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>61</v>
+      </c>
+      <c r="B177">
+        <v>28</v>
+      </c>
+      <c r="C177" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" t="s">
+        <v>41</v>
+      </c>
+      <c r="E177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0.3</v>
+      </c>
+      <c r="I177">
+        <v>0.05</v>
+      </c>
+      <c r="J177">
+        <v>0.3</v>
+      </c>
+      <c r="K177">
+        <v>5</v>
+      </c>
+      <c r="L177">
+        <v>5</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177">
+        <v>2</v>
+      </c>
+      <c r="P177">
+        <v>4</v>
+      </c>
+      <c r="Q177">
+        <v>15</v>
+      </c>
+      <c r="R177">
+        <v>28</v>
+      </c>
+      <c r="S177">
+        <v>1158</v>
+      </c>
+      <c r="T177">
+        <v>1158</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>1158</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>23</v>
+      </c>
+      <c r="Y177">
+        <v>16</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC177">
+        <v>22</v>
+      </c>
+      <c r="AD177">
+        <v>10</v>
+      </c>
+      <c r="AE177">
+        <v>544.10380053519998</v>
+      </c>
+      <c r="AF177">
+        <v>7.4917051792144784</v>
+      </c>
+      <c r="AG177">
+        <v>221.38192081451419</v>
+      </c>
+      <c r="AH177">
+        <v>5.4190158843994141E-3</v>
+      </c>
+      <c r="AI177">
+        <v>135.6943020820618</v>
+      </c>
+      <c r="AJ177">
+        <v>962.62697339057922</v>
+      </c>
+      <c r="AK177">
+        <v>1544.1010680198669</v>
+      </c>
+      <c r="AL177">
+        <v>352.59778213500982</v>
+      </c>
+      <c r="AM177">
+        <v>1</v>
+      </c>
+      <c r="AN177">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>62</v>
+      </c>
+      <c r="B178">
+        <v>28</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" t="s">
+        <v>41</v>
+      </c>
+      <c r="E178" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" t="s">
+        <v>43</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0.3</v>
+      </c>
+      <c r="I178">
+        <v>0.05</v>
+      </c>
+      <c r="J178">
+        <v>0.3</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>5</v>
+      </c>
+      <c r="O178">
+        <v>2</v>
+      </c>
+      <c r="P178">
+        <v>4</v>
+      </c>
+      <c r="Q178">
+        <v>15</v>
+      </c>
+      <c r="R178">
+        <v>28</v>
+      </c>
+      <c r="S178">
+        <v>894</v>
+      </c>
+      <c r="T178">
+        <v>894</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>894</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>13</v>
+      </c>
+      <c r="Y178">
+        <v>10</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA178" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC178">
+        <v>12</v>
+      </c>
+      <c r="AD178">
+        <v>5</v>
+      </c>
+      <c r="AE178">
+        <v>817.92302489280701</v>
+      </c>
+      <c r="AF178">
+        <v>4.0994601249694824</v>
+      </c>
+      <c r="AG178">
+        <v>172.59360575675959</v>
+      </c>
+      <c r="AH178">
+        <v>2.5582313537597661E-3</v>
+      </c>
+      <c r="AI178">
+        <v>128.2538306713104</v>
+      </c>
+      <c r="AJ178">
+        <v>448.13079404830933</v>
+      </c>
+      <c r="AK178">
+        <v>817.91925621032715</v>
+      </c>
+      <c r="AL178">
+        <v>193.09660673141479</v>
+      </c>
+      <c r="AM178">
+        <v>1</v>
+      </c>
+      <c r="AN178">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>69</v>
+      </c>
+      <c r="B179">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" t="s">
+        <v>43</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0.3</v>
+      </c>
+      <c r="I179">
+        <v>0.05</v>
+      </c>
+      <c r="J179">
+        <v>0.3</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179">
+        <v>5</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179">
+        <v>2</v>
+      </c>
+      <c r="P179">
+        <v>4</v>
+      </c>
+      <c r="Q179">
+        <v>15</v>
+      </c>
+      <c r="R179">
+        <v>28</v>
+      </c>
+      <c r="S179">
+        <v>1109</v>
+      </c>
+      <c r="T179">
+        <v>1109</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>1109</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>29</v>
+      </c>
+      <c r="Y179">
+        <v>23</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA179" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC179">
+        <v>28</v>
+      </c>
+      <c r="AD179">
+        <v>13</v>
+      </c>
+      <c r="AE179">
+        <v>720.67113852500995</v>
+      </c>
+      <c r="AF179">
+        <v>10.025145053863531</v>
+      </c>
+      <c r="AG179">
+        <v>283.61882185935968</v>
+      </c>
+      <c r="AH179">
+        <v>5.7682991027832031E-3</v>
+      </c>
+      <c r="AI179">
+        <v>166.00710582733149</v>
+      </c>
+      <c r="AJ179">
+        <v>1224.633525371552</v>
+      </c>
+      <c r="AK179">
+        <v>1920.668111085892</v>
+      </c>
+      <c r="AL179">
+        <v>402.38787794113159</v>
+      </c>
+      <c r="AM179">
+        <v>1</v>
+      </c>
+      <c r="AN179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>73</v>
+      </c>
+      <c r="B180">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" t="s">
+        <v>43</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0.3</v>
+      </c>
+      <c r="I180">
+        <v>0.05</v>
+      </c>
+      <c r="J180">
+        <v>0.3</v>
+      </c>
+      <c r="K180">
+        <v>5</v>
+      </c>
+      <c r="L180">
+        <v>5</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>5</v>
+      </c>
+      <c r="O180">
+        <v>2</v>
+      </c>
+      <c r="P180">
+        <v>4</v>
+      </c>
+      <c r="Q180">
+        <v>15</v>
+      </c>
+      <c r="R180">
+        <v>28</v>
+      </c>
+      <c r="S180">
+        <v>1150</v>
+      </c>
+      <c r="T180">
+        <v>1150</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>1150</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>39</v>
+      </c>
+      <c r="Y180">
+        <v>25</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA180" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC180">
+        <v>38</v>
+      </c>
+      <c r="AD180">
+        <v>18</v>
+      </c>
+      <c r="AE180">
+        <v>587.51598048209996</v>
+      </c>
+      <c r="AF180">
+        <v>12.50327634811401</v>
+      </c>
+      <c r="AG180">
+        <v>303.69833087921143</v>
+      </c>
+      <c r="AH180">
+        <v>8.3026885986328125E-3</v>
+      </c>
+      <c r="AI180">
+        <v>139.4473948478699</v>
+      </c>
+      <c r="AJ180">
+        <v>1721.471464157104</v>
+      </c>
+      <c r="AK180">
+        <v>2587.514200687408</v>
+      </c>
+      <c r="AL180">
+        <v>549.83460640907288</v>
+      </c>
+      <c r="AM180">
+        <v>1</v>
+      </c>
+      <c r="AN180">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>100</v>
+      </c>
+      <c r="B181">
+        <v>28</v>
+      </c>
+      <c r="C181" t="s">
+        <v>40</v>
+      </c>
+      <c r="D181" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" t="s">
+        <v>43</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0.3</v>
+      </c>
+      <c r="I181">
+        <v>0.05</v>
+      </c>
+      <c r="J181">
+        <v>0.3</v>
+      </c>
+      <c r="K181">
+        <v>5</v>
+      </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>5</v>
+      </c>
+      <c r="O181">
+        <v>2</v>
+      </c>
+      <c r="P181">
+        <v>4</v>
+      </c>
+      <c r="Q181">
+        <v>15</v>
+      </c>
+      <c r="R181">
+        <v>28</v>
+      </c>
+      <c r="S181">
         <v>1008</v>
       </c>
-      <c r="T176">
+      <c r="T181">
         <v>1008</v>
       </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
-      <c r="V176">
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
         <v>1008</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
         <v>79</v>
       </c>
-      <c r="Y176">
+      <c r="Y181">
         <v>51</v>
       </c>
-      <c r="Z176" t="s">
+      <c r="Z181" t="s">
         <v>157</v>
       </c>
-      <c r="AA176" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB176" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC176">
+      <c r="AA181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC181">
         <v>78</v>
       </c>
-      <c r="AD176">
+      <c r="AD181">
         <v>38</v>
       </c>
-      <c r="AE176">
+      <c r="AE181">
         <v>738.12457251548994</v>
       </c>
-      <c r="AF176">
+      <c r="AF181">
         <v>19.390533208847049</v>
       </c>
-      <c r="AG176">
+      <c r="AG181">
         <v>478.29828572273249</v>
       </c>
-      <c r="AH176">
+      <c r="AH181">
         <v>4.1527748107910156E-3</v>
       </c>
-      <c r="AI176">
+      <c r="AI181">
         <v>106.9692006111145</v>
       </c>
-      <c r="AJ176">
+      <c r="AJ181">
         <v>2470.5235984325409</v>
       </c>
-      <c r="AK176">
+      <c r="AK181">
         <v>3438.1213235855098</v>
       </c>
-      <c r="AL176">
+      <c r="AL181">
         <v>469.9080023765564</v>
       </c>
-      <c r="AM176">
-        <v>1</v>
-      </c>
-      <c r="AN176">
+      <c r="AM181">
+        <v>1</v>
+      </c>
+      <c r="AN181">
         <v>263</v>
       </c>
     </row>
